--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl2-Cxcr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl2-Cxcr1.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.988550333333333</v>
+        <v>2.888950333333333</v>
       </c>
       <c r="H2">
-        <v>5.965650999999999</v>
+        <v>8.666850999999999</v>
       </c>
       <c r="I2">
-        <v>0.002979254250054934</v>
+        <v>0.01484500611104232</v>
       </c>
       <c r="J2">
-        <v>0.002979254250054933</v>
+        <v>0.01484500611104232</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.141183</v>
+        <v>0.011299</v>
       </c>
       <c r="N2">
-        <v>0.423549</v>
+        <v>0.033897</v>
       </c>
       <c r="O2">
-        <v>0.3560479966105798</v>
+        <v>0.3524439315012944</v>
       </c>
       <c r="P2">
-        <v>0.3560479966105798</v>
+        <v>0.3524439315012944</v>
       </c>
       <c r="Q2">
-        <v>0.280749501711</v>
+        <v>0.03264224981633333</v>
       </c>
       <c r="R2">
-        <v>2.526745515399</v>
+        <v>0.293780248347</v>
       </c>
       <c r="S2">
-        <v>0.001060757507125615</v>
+        <v>0.005232032316936495</v>
       </c>
       <c r="T2">
-        <v>0.001060757507125614</v>
+        <v>0.005232032316936495</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.988550333333333</v>
+        <v>2.888950333333333</v>
       </c>
       <c r="H3">
-        <v>5.965650999999999</v>
+        <v>8.666850999999999</v>
       </c>
       <c r="I3">
-        <v>0.002979254250054934</v>
+        <v>0.01484500611104232</v>
       </c>
       <c r="J3">
-        <v>0.002979254250054933</v>
+        <v>0.01484500611104232</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.001019</v>
       </c>
       <c r="O3">
-        <v>0.0008566019717817321</v>
+        <v>0.01059504871227008</v>
       </c>
       <c r="P3">
-        <v>0.000856601971781732</v>
+        <v>0.01059504871227008</v>
       </c>
       <c r="Q3">
-        <v>0.0006754442632222222</v>
+        <v>0.0009812801298888889</v>
       </c>
       <c r="R3">
-        <v>0.006078998368999999</v>
+        <v>0.008831521168999998</v>
       </c>
       <c r="S3">
-        <v>2.552035065036162E-06</v>
+        <v>0.0001572835628804405</v>
       </c>
       <c r="T3">
-        <v>2.552035065036161E-06</v>
+        <v>0.0001572835628804404</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.988550333333333</v>
+        <v>2.888950333333333</v>
       </c>
       <c r="H4">
-        <v>5.965650999999999</v>
+        <v>8.666850999999999</v>
       </c>
       <c r="I4">
-        <v>0.002979254250054934</v>
+        <v>0.01484500611104232</v>
       </c>
       <c r="J4">
-        <v>0.002979254250054933</v>
+        <v>0.01484500611104232</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.2550053333333333</v>
+        <v>0.02042033333333334</v>
       </c>
       <c r="N4">
-        <v>0.7650159999999999</v>
+        <v>0.061261</v>
       </c>
       <c r="O4">
-        <v>0.6430954014176384</v>
+        <v>0.6369610197864354</v>
       </c>
       <c r="P4">
-        <v>0.6430954014176384</v>
+        <v>0.6369610197864355</v>
       </c>
       <c r="Q4">
-        <v>0.5070909406017777</v>
+        <v>0.05899332879011111</v>
       </c>
       <c r="R4">
-        <v>4.563818465415999</v>
+        <v>0.530939959111</v>
       </c>
       <c r="S4">
-        <v>0.001915944707864283</v>
+        <v>0.00945569023122538</v>
       </c>
       <c r="T4">
-        <v>0.001915944707864283</v>
+        <v>0.00945569023122538</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,40 +732,40 @@
         <v>37.68593600000001</v>
       </c>
       <c r="I5">
-        <v>0.01882040786417078</v>
+        <v>0.06455031362836973</v>
       </c>
       <c r="J5">
-        <v>0.01882040786417077</v>
+        <v>0.06455031362836972</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.141183</v>
+        <v>0.011299</v>
       </c>
       <c r="N5">
-        <v>0.423549</v>
+        <v>0.033897</v>
       </c>
       <c r="O5">
-        <v>0.3560479966105798</v>
+        <v>0.3524439315012944</v>
       </c>
       <c r="P5">
-        <v>0.3560479966105798</v>
+        <v>0.3524439315012944</v>
       </c>
       <c r="Q5">
-        <v>1.773537834096</v>
+        <v>0.1419377969546667</v>
       </c>
       <c r="R5">
-        <v>15.961840506864</v>
+        <v>1.277440172592</v>
       </c>
       <c r="S5">
-        <v>0.006700968515432007</v>
+        <v>0.02275036631482421</v>
       </c>
       <c r="T5">
-        <v>0.006700968515432006</v>
+        <v>0.02275036631482421</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>37.68593600000001</v>
       </c>
       <c r="I6">
-        <v>0.01882040786417078</v>
+        <v>0.06455031362836973</v>
       </c>
       <c r="J6">
-        <v>0.01882040786417077</v>
+        <v>0.06455031362836972</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,10 +812,10 @@
         <v>0.001019</v>
       </c>
       <c r="O6">
-        <v>0.0008566019717817321</v>
+        <v>0.01059504871227008</v>
       </c>
       <c r="P6">
-        <v>0.000856601971781732</v>
+        <v>0.01059504871227008</v>
       </c>
       <c r="Q6">
         <v>0.004266885420444445</v>
@@ -824,10 +824,10 @@
         <v>0.03840196878400001</v>
       </c>
       <c r="S6">
-        <v>1.612159848618511E-05</v>
+        <v>0.0006839137172848888</v>
       </c>
       <c r="T6">
-        <v>1.61215984861851E-05</v>
+        <v>0.0006839137172848886</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>37.68593600000001</v>
       </c>
       <c r="I7">
-        <v>0.01882040786417078</v>
+        <v>0.06455031362836973</v>
       </c>
       <c r="J7">
-        <v>0.01882040786417077</v>
+        <v>0.06455031362836972</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2550053333333333</v>
+        <v>0.02042033333333334</v>
       </c>
       <c r="N7">
-        <v>0.7650159999999999</v>
+        <v>0.061261</v>
       </c>
       <c r="O7">
-        <v>0.6430954014176384</v>
+        <v>0.6369610197864354</v>
       </c>
       <c r="P7">
-        <v>0.6430954014176384</v>
+        <v>0.6369610197864355</v>
       </c>
       <c r="Q7">
-        <v>3.203371557219556</v>
+        <v>0.2565197916995556</v>
       </c>
       <c r="R7">
-        <v>28.830344014976</v>
+        <v>2.308678125296</v>
       </c>
       <c r="S7">
-        <v>0.01210331775025258</v>
+        <v>0.04111603359626062</v>
       </c>
       <c r="T7">
-        <v>0.01210331775025258</v>
+        <v>0.04111603359626062</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>319.839569</v>
+        <v>94.40225766666667</v>
       </c>
       <c r="H8">
-        <v>959.5187069999999</v>
+        <v>283.206773</v>
       </c>
       <c r="I8">
-        <v>0.4791849516233794</v>
+        <v>0.4850904066394559</v>
       </c>
       <c r="J8">
-        <v>0.4791849516233793</v>
+        <v>0.4850904066394559</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.141183</v>
+        <v>0.011299</v>
       </c>
       <c r="N8">
-        <v>0.423549</v>
+        <v>0.033897</v>
       </c>
       <c r="O8">
-        <v>0.3560479966105798</v>
+        <v>0.3524439315012944</v>
       </c>
       <c r="P8">
-        <v>0.3560479966105798</v>
+        <v>0.3524439315012944</v>
       </c>
       <c r="Q8">
-        <v>45.155909870127</v>
+        <v>1.066651109375667</v>
       </c>
       <c r="R8">
-        <v>406.403188831143</v>
+        <v>9.599859984380998</v>
       </c>
       <c r="S8">
-        <v>0.1706128420314418</v>
+        <v>0.1709671700495714</v>
       </c>
       <c r="T8">
-        <v>0.1706128420314418</v>
+        <v>0.1709671700495714</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>319.839569</v>
+        <v>94.40225766666667</v>
       </c>
       <c r="H9">
-        <v>959.5187069999999</v>
+        <v>283.206773</v>
       </c>
       <c r="I9">
-        <v>0.4791849516233794</v>
+        <v>0.4850904066394559</v>
       </c>
       <c r="J9">
-        <v>0.4791849516233793</v>
+        <v>0.4850904066394559</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -998,22 +998,22 @@
         <v>0.001019</v>
       </c>
       <c r="O9">
-        <v>0.0008566019717817321</v>
+        <v>0.01059504871227008</v>
       </c>
       <c r="P9">
-        <v>0.000856601971781732</v>
+        <v>0.01059504871227008</v>
       </c>
       <c r="Q9">
-        <v>0.1086388402703333</v>
+        <v>0.03206530018744445</v>
       </c>
       <c r="R9">
-        <v>0.9777495624329999</v>
+        <v>0.288587701687</v>
       </c>
       <c r="S9">
-        <v>0.0004104707744087207</v>
+        <v>0.005139556488199939</v>
       </c>
       <c r="T9">
-        <v>0.0004104707744087206</v>
+        <v>0.005139556488199938</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>319.839569</v>
+        <v>94.40225766666667</v>
       </c>
       <c r="H10">
-        <v>959.5187069999999</v>
+        <v>283.206773</v>
       </c>
       <c r="I10">
-        <v>0.4791849516233794</v>
+        <v>0.4850904066394559</v>
       </c>
       <c r="J10">
-        <v>0.4791849516233793</v>
+        <v>0.4850904066394559</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.2550053333333333</v>
+        <v>0.02042033333333334</v>
       </c>
       <c r="N10">
-        <v>0.7650159999999999</v>
+        <v>0.061261</v>
       </c>
       <c r="O10">
-        <v>0.6430954014176384</v>
+        <v>0.6369610197864354</v>
       </c>
       <c r="P10">
-        <v>0.6430954014176384</v>
+        <v>0.6369610197864355</v>
       </c>
       <c r="Q10">
-        <v>81.56079590603466</v>
+        <v>1.927725568972556</v>
       </c>
       <c r="R10">
-        <v>734.0471631543119</v>
+        <v>17.349530120753</v>
       </c>
       <c r="S10">
-        <v>0.3081616388175288</v>
+        <v>0.3089836801016845</v>
       </c>
       <c r="T10">
-        <v>0.3081616388175288</v>
+        <v>0.3089836801016845</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6344013333333334</v>
+        <v>0.421979</v>
       </c>
       <c r="H11">
-        <v>1.903204</v>
+        <v>1.265937</v>
       </c>
       <c r="I11">
-        <v>0.0009504626746890743</v>
+        <v>0.002168358784660609</v>
       </c>
       <c r="J11">
-        <v>0.0009504626746890741</v>
+        <v>0.002168358784660609</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.141183</v>
+        <v>0.011299</v>
       </c>
       <c r="N11">
-        <v>0.423549</v>
+        <v>0.033897</v>
       </c>
       <c r="O11">
-        <v>0.3560479966105798</v>
+        <v>0.3524439315012944</v>
       </c>
       <c r="P11">
-        <v>0.3560479966105798</v>
+        <v>0.3524439315012944</v>
       </c>
       <c r="Q11">
-        <v>0.08956668344400001</v>
+        <v>0.004767940721</v>
       </c>
       <c r="R11">
-        <v>0.8061001509960001</v>
+        <v>0.042911466489</v>
       </c>
       <c r="S11">
-        <v>0.0003384103311761781</v>
+        <v>0.0007642248949711535</v>
       </c>
       <c r="T11">
-        <v>0.0003384103311761781</v>
+        <v>0.0007642248949711536</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6344013333333334</v>
+        <v>0.421979</v>
       </c>
       <c r="H12">
-        <v>1.903204</v>
+        <v>1.265937</v>
       </c>
       <c r="I12">
-        <v>0.0009504626746890743</v>
+        <v>0.002168358784660609</v>
       </c>
       <c r="J12">
-        <v>0.0009504626746890741</v>
+        <v>0.002168358784660609</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1184,22 +1184,22 @@
         <v>0.001019</v>
       </c>
       <c r="O12">
-        <v>0.0008566019717817321</v>
+        <v>0.01059504871227008</v>
       </c>
       <c r="P12">
-        <v>0.000856601971781732</v>
+        <v>0.01059504871227008</v>
       </c>
       <c r="Q12">
-        <v>0.0002154849862222222</v>
+        <v>0.0001433322003333333</v>
       </c>
       <c r="R12">
-        <v>0.001939364876</v>
+        <v>0.001289989803</v>
       </c>
       <c r="S12">
-        <v>8.141682012436E-07</v>
+        <v>2.29738669491579E-05</v>
       </c>
       <c r="T12">
-        <v>8.141682012435998E-07</v>
+        <v>2.29738669491579E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6344013333333334</v>
+        <v>0.421979</v>
       </c>
       <c r="H13">
-        <v>1.903204</v>
+        <v>1.265937</v>
       </c>
       <c r="I13">
-        <v>0.0009504626746890743</v>
+        <v>0.002168358784660609</v>
       </c>
       <c r="J13">
-        <v>0.0009504626746890741</v>
+        <v>0.002168358784660609</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.2550053333333333</v>
+        <v>0.02042033333333334</v>
       </c>
       <c r="N13">
-        <v>0.7650159999999999</v>
+        <v>0.061261</v>
       </c>
       <c r="O13">
-        <v>0.6430954014176384</v>
+        <v>0.6369610197864354</v>
       </c>
       <c r="P13">
-        <v>0.6430954014176384</v>
+        <v>0.6369610197864355</v>
       </c>
       <c r="Q13">
-        <v>0.1617757234737778</v>
+        <v>0.008616951839666669</v>
       </c>
       <c r="R13">
-        <v>1.455981511264</v>
+        <v>0.07755256655700001</v>
       </c>
       <c r="S13">
-        <v>0.0006112381753116525</v>
+        <v>0.001381160022740297</v>
       </c>
       <c r="T13">
-        <v>0.0006112381753116524</v>
+        <v>0.001381160022740297</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>332.4413046666667</v>
+        <v>84.33238866666666</v>
       </c>
       <c r="H14">
-        <v>997.3239140000001</v>
+        <v>252.997166</v>
       </c>
       <c r="I14">
-        <v>0.4980649235877059</v>
+        <v>0.4333459148364715</v>
       </c>
       <c r="J14">
-        <v>0.4980649235877059</v>
+        <v>0.4333459148364714</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.141183</v>
+        <v>0.011299</v>
       </c>
       <c r="N14">
-        <v>0.423549</v>
+        <v>0.033897</v>
       </c>
       <c r="O14">
-        <v>0.3560479966105798</v>
+        <v>0.3524439315012944</v>
       </c>
       <c r="P14">
-        <v>0.3560479966105798</v>
+        <v>0.3524439315012944</v>
       </c>
       <c r="Q14">
-        <v>46.935060716754</v>
+        <v>0.9528716595446665</v>
       </c>
       <c r="R14">
-        <v>422.4155464507861</v>
+        <v>8.575844935901999</v>
       </c>
       <c r="S14">
-        <v>0.1773350182254042</v>
+        <v>0.1527301379249911</v>
       </c>
       <c r="T14">
-        <v>0.1773350182254042</v>
+        <v>0.1527301379249911</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>332.4413046666667</v>
+        <v>84.33238866666666</v>
       </c>
       <c r="H15">
-        <v>997.3239140000001</v>
+        <v>252.997166</v>
       </c>
       <c r="I15">
-        <v>0.4980649235877059</v>
+        <v>0.4333459148364715</v>
       </c>
       <c r="J15">
-        <v>0.4980649235877059</v>
+        <v>0.4333459148364714</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1370,22 +1370,22 @@
         <v>0.001019</v>
       </c>
       <c r="O15">
-        <v>0.0008566019717817321</v>
+        <v>0.01059504871227008</v>
       </c>
       <c r="P15">
-        <v>0.000856601971781732</v>
+        <v>0.01059504871227008</v>
       </c>
       <c r="Q15">
-        <v>0.1129192298184444</v>
+        <v>0.02864490135044444</v>
       </c>
       <c r="R15">
-        <v>1.016273068366</v>
+        <v>0.257804112154</v>
       </c>
       <c r="S15">
-        <v>0.0004266433956205467</v>
+        <v>0.004591321076955659</v>
       </c>
       <c r="T15">
-        <v>0.0004266433956205466</v>
+        <v>0.004591321076955659</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>332.4413046666667</v>
+        <v>84.33238866666666</v>
       </c>
       <c r="H16">
-        <v>997.3239140000001</v>
+        <v>252.997166</v>
       </c>
       <c r="I16">
-        <v>0.4980649235877059</v>
+        <v>0.4333459148364715</v>
       </c>
       <c r="J16">
-        <v>0.4980649235877059</v>
+        <v>0.4333459148364714</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.2550053333333333</v>
+        <v>0.02042033333333334</v>
       </c>
       <c r="N16">
-        <v>0.7650159999999999</v>
+        <v>0.061261</v>
       </c>
       <c r="O16">
-        <v>0.6430954014176384</v>
+        <v>0.6369610197864354</v>
       </c>
       <c r="P16">
-        <v>0.6430954014176384</v>
+        <v>0.6369610197864355</v>
       </c>
       <c r="Q16">
-        <v>84.77430571029154</v>
+        <v>1.722095487369556</v>
       </c>
       <c r="R16">
-        <v>762.968751392624</v>
+        <v>15.498859386326</v>
       </c>
       <c r="S16">
-        <v>0.3203032619666812</v>
+        <v>0.2760244558345247</v>
       </c>
       <c r="T16">
-        <v>0.3203032619666811</v>
+        <v>0.2760244558345247</v>
       </c>
     </row>
   </sheetData>
